--- a/2023/usa_mls_2023.xlsx
+++ b/2023/usa_mls_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V478"/>
+  <dimension ref="A1:V479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44181,30 +44181,30 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="G476" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="I476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J476" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>13/08/2023 11:42</t>
+          <t>01/10/2023 02:42</t>
         </is>
       </c>
       <c r="L476" t="n">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="M476" t="inlineStr">
         <is>
@@ -44212,40 +44212,40 @@
         </is>
       </c>
       <c r="N476" t="n">
-        <v>3.69</v>
+        <v>4.06</v>
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>13/08/2023 11:42</t>
+          <t>01/10/2023 02:42</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>3.86</v>
+        <v>4.41</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>15/10/2023 02:26</t>
+          <t>15/10/2023 02:29</t>
         </is>
       </c>
       <c r="R476" t="n">
-        <v>3.69</v>
+        <v>4.77</v>
       </c>
       <c r="S476" t="inlineStr">
         <is>
-          <t>13/08/2023 11:42</t>
+          <t>01/10/2023 02:42</t>
         </is>
       </c>
       <c r="T476" t="n">
-        <v>4.51</v>
+        <v>6.99</v>
       </c>
       <c r="U476" t="inlineStr">
         <is>
-          <t>15/10/2023 02:26</t>
+          <t>15/10/2023 02:29</t>
         </is>
       </c>
       <c r="V476" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/usa/mls/nashville-sc-new-england-revolution/hWvXpiMp/</t>
+          <t>https://www.betexplorer.com/football/usa/mls/fc-dallas-colorado-rapids/EXR08Lgd/</t>
         </is>
       </c>
     </row>
@@ -44273,30 +44273,30 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="G477" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="I477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J477" t="n">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>01/10/2023 02:42</t>
+          <t>13/08/2023 11:42</t>
         </is>
       </c>
       <c r="L477" t="n">
-        <v>1.51</v>
+        <v>1.82</v>
       </c>
       <c r="M477" t="inlineStr">
         <is>
@@ -44304,40 +44304,40 @@
         </is>
       </c>
       <c r="N477" t="n">
-        <v>4.06</v>
+        <v>3.69</v>
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>01/10/2023 02:42</t>
+          <t>13/08/2023 11:42</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>4.41</v>
+        <v>3.86</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>15/10/2023 02:29</t>
+          <t>15/10/2023 02:26</t>
         </is>
       </c>
       <c r="R477" t="n">
-        <v>4.77</v>
+        <v>3.69</v>
       </c>
       <c r="S477" t="inlineStr">
         <is>
-          <t>01/10/2023 02:42</t>
+          <t>13/08/2023 11:42</t>
         </is>
       </c>
       <c r="T477" t="n">
-        <v>6.99</v>
+        <v>4.51</v>
       </c>
       <c r="U477" t="inlineStr">
         <is>
-          <t>15/10/2023 02:29</t>
+          <t>15/10/2023 02:26</t>
         </is>
       </c>
       <c r="V477" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/usa/mls/fc-dallas-colorado-rapids/EXR08Lgd/</t>
+          <t>https://www.betexplorer.com/football/usa/mls/nashville-sc-new-england-revolution/hWvXpiMp/</t>
         </is>
       </c>
     </row>
@@ -44430,6 +44430,98 @@
       <c r="V478" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/usa/mls/los-angeles-galaxy-real-salt-lake/8v9Hh3ui/</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>mls</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E479" s="2" t="n">
+        <v>45218.08333333334</v>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="G479" t="n">
+        <v>2</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="I479" t="n">
+        <v>2</v>
+      </c>
+      <c r="J479" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="L479" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="N479" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="P479" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q479" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:57</t>
+        </is>
+      </c>
+      <c r="R479" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S479" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="T479" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U479" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="V479" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/usa/mls/inter-miami-charlotte-fc/h8dpfeab/</t>
         </is>
       </c>
     </row>
